--- a/Model_comparisons_mae.xlsx
+++ b/Model_comparisons_mae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoe/Documents/Yale EMD/Rotation 1/Dengue - Vietnam/dengue_exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{717864ED-0804-9342-875C-CB867D6E57F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E06EF1-0BD9-CA4C-A237-B058EF453369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{8896EF46-07BF-414A-A4AF-72783EE24553}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Model</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>base model (11,000 runs)</t>
+  </si>
+  <si>
+    <t>land use (base + land use, 11,000 runs)</t>
   </si>
 </sst>
 </file>
@@ -62,8 +65,9 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -403,28 +408,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FB9444-810B-834F-8093-85D9D4D9F970}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.128776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.6050780000000002E-2</v>
       </c>
     </row>
   </sheetData>
